--- a/data/trans_dic/P16A10-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,01</t>
+          <t>2,86; 7,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,43</t>
+          <t>3,47; 8,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,48</t>
+          <t>3,64; 8,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,57</t>
+          <t>3,27; 6,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,87</t>
+          <t>2,15; 6,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,69</t>
+          <t>3,05; 7,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,7</t>
+          <t>1,52; 3,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,27</t>
+          <t>3,08; 6,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,12</t>
+          <t>2,27; 5,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,42</t>
+          <t>3,71; 7,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,72</t>
+          <t>2,81; 4,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,17</t>
+          <t>1,97; 6,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,39</t>
+          <t>2,12; 6,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,19</t>
+          <t>2,9; 7,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,49</t>
+          <t>3,31; 6,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,8</t>
+          <t>0,63; 3,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,81</t>
+          <t>0,6; 4,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,93</t>
+          <t>0,88; 2,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,17</t>
+          <t>1,58; 4,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,19</t>
+          <t>1,43; 4,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,95</t>
+          <t>2,16; 5,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,61</t>
+          <t>2,46; 4,55</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,38</t>
+          <t>4,42; 8,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,12</t>
+          <t>4,27; 8,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,55</t>
+          <t>4,98; 9,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,68</t>
+          <t>1,53; 7,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,65</t>
+          <t>1,22; 7,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,14</t>
+          <t>1,99; 6,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,24</t>
+          <t>2,12; 9,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 13,03</t>
+          <t>3,93; 12,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,36</t>
+          <t>4,02; 7,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,13</t>
+          <t>3,95; 7,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,74</t>
+          <t>4,87; 8,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,72</t>
+          <t>1,96; 7,8</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 8,68</t>
+          <t>6,01; 8,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,26</t>
+          <t>4,65; 7,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,7</t>
+          <t>5,51; 8,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,73</t>
+          <t>5,85; 8,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,81</t>
+          <t>2,86; 5,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,17</t>
+          <t>1,81; 4,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,16</t>
+          <t>2,38; 5,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,13</t>
+          <t>1,4; 4,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,15</t>
+          <t>5,13; 7,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,62</t>
+          <t>3,75; 5,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,8</t>
+          <t>4,64; 6,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,16</t>
+          <t>3,53; 6,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,96</t>
+          <t>3,43; 7,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,26</t>
+          <t>4,07; 8,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,21</t>
+          <t>5,14; 9,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,29</t>
+          <t>4,26; 8,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,7</t>
+          <t>4,47; 8,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,42</t>
+          <t>6,51; 10,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,62</t>
+          <t>3,97; 7,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,2</t>
+          <t>4,77; 8,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,75</t>
+          <t>4,47; 7,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,85</t>
+          <t>6,06; 8,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,66</t>
+          <t>5,09; 7,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,64</t>
+          <t>5,28; 7,8</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,17</t>
+          <t>0,39; 5,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,71</t>
+          <t>5,69; 8,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,86</t>
+          <t>4,96; 7,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,98</t>
+          <t>6,43; 9,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,19; 10,35</t>
+          <t>7,27; 10,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,02</t>
+          <t>4,72; 7,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,69</t>
+          <t>4,29; 6,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,0</t>
+          <t>5,09; 7,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,04</t>
+          <t>5,51; 7,92</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,24</t>
+          <t>4,68; 6,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,18</t>
+          <t>4,53; 6,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,87</t>
+          <t>5,25; 7,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,17</t>
+          <t>4,07; 6,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,19</t>
+          <t>4,52; 6,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,46</t>
+          <t>4,07; 5,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,33</t>
+          <t>4,65; 6,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,74</t>
+          <t>4,03; 5,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 5,91</t>
+          <t>4,83; 5,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,6</t>
+          <t>4,48; 5,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 6,27</t>
+          <t>5,15; 6,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,71</t>
+          <t>4,43; 5,73</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22167</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24303</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24212</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23762</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12427</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17342</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10944</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>34594</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26364</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41554</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34707</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13555; 33392</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15150; 36865</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15602; 35222</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16508; 33329</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6608; 21311</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7107</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10582; 27406</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6809; 16767</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24054; 48836</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17067; 39555</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28796; 56066</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26758; 45923</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12784</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15684</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18097</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21784</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6611</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2815</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6610</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19396</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18499</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24569</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28394</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7247; 22947</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8838; 27027</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10934; 26929</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14974; 30213</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2345; 14197</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9871</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2243; 15779</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3373; 11103</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11643; 29699</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10777; 31432</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16225; 37460</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20546; 38010</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33411</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37462</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36703</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30800</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5956</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9752</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8646</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11351</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39367</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47215</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45350</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>42151</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24000; 45937</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26745; 51110</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25991; 50242</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10230; 52993</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2051; 11983</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5134; 17430</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3522; 16579</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6558; 20602</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28533; 52425</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34918; 62236</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33518; 61292</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16339; 65173</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>89534</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>67710</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>81157</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>73706</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>29117</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21826</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29783</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28363</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>118652</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>89536</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>110940</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>102068</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74463; 108645</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53844; 84335</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>63401; 98165</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60551; 90025</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20400; 42633</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13876; 31930</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19653; 42589</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13701; 39763</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>100236; 142843</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>72191; 111660</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>91718; 132205</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>71098; 123221</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18589</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30055</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42931</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28747</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35981</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>62982</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41290</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>55865</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>54570</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>93038</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>84221</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>84612</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11994; 27775</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20782; 42764</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31885; 56159</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20214; 38504</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25405; 50149</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>49496; 80035</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29309; 55939</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40006; 68295</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>41062; 70049</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>76981; 113114</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>69196; 103924</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>69311; 102412</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5274</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>88851</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>69969</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>87451</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>89672</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>75243</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>87451</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>66870</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4401</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1024; 13302</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2019</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3776</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>71106; 108322</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>54818; 88192</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>69607; 108098</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>55269; 78022</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>73051; 109512</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>58842; 92651</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>69671; 108482</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>55119; 79267</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>177307</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>180488</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>203100</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>179810</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>178944</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>169406</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>190984</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>178992</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>356251</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>349894</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>394084</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>358802</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>152843; 205379</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>154657; 208551</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>177698; 237627</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>137407; 206729</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>152830; 206410</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>144181; 195838</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>164193; 222622</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>143902; 204265</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>320922; 390019</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>311777; 385645</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>356248; 436725</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>307553; 397936</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A10-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
